--- a/LinearRegression 1.xlsx
+++ b/LinearRegression 1.xlsx
@@ -21,10 +21,10 @@
     <t>Temperature (C)</t>
   </si>
   <si>
-    <t>Ice Cream Sale (dollar in thousand)</t>
+    <t>To be predicted</t>
   </si>
   <si>
-    <t>To be predicted</t>
+    <t>Water bottle Sale (dollar in thousand)</t>
   </si>
 </sst>
 </file>
@@ -60,7 +60,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -367,7 +368,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -382,8 +383,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -473,7 +474,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
